--- a/Relative Valuation Model/Tata Motors Relative Valuation.xlsx
+++ b/Relative Valuation Model/Tata Motors Relative Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Relative Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36D26C6-AC4D-497F-8181-B122EE1DAA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A733EF69-7BA1-4C6D-B864-FE8BB179A75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{BE21E419-21A4-4BEB-85FB-14A6CD47A750}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="209">
   <si>
     <t>Median</t>
   </si>
@@ -754,12 +754,15 @@
   <si>
     <t> Implied Share Price Table</t>
   </si>
+  <si>
+    <t>Total STOP = ₹1643</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0%;\(0%\)"/>
@@ -771,6 +774,7 @@
     <numFmt numFmtId="170" formatCode="[$₹-439]#,##0.00"/>
     <numFmt numFmtId="171" formatCode="0.0%;\(0.0%\)"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="[$₹-439]#,##0"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1296,7 +1300,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="12" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -1690,10 +1694,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="22"/>
     <xf numFmtId="170" fontId="1" fillId="2" borderId="11" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="25" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1702,17 +1719,11 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="25" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="12" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,14 +1746,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="170" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="25" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1762,12 +1767,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1777,10 +1776,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5961,6 +5972,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC00000"/>
+      <color rgb="FF70AD47"/>
+      <color rgb="FFED7D31"/>
+      <color rgb="FF2171B5"/>
       <color rgb="FFFF5353"/>
       <color rgb="FF00C459"/>
       <color rgb="FFFF6600"/>
@@ -6356,7 +6371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{149B6673-01A5-42D8-812E-14B137A99E98}" type="CELLRANGE">
+                    <a:fld id="{43AF69D0-6F4D-4F36-8212-A72CB4694DF5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6389,7 +6404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A87D4FB-3089-46F4-B153-10AF51E1DC26}" type="CELLRANGE">
+                    <a:fld id="{84521DF0-FFB1-438B-9FE6-27873F241713}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6422,7 +6437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B54AC3E-6272-4107-B2C8-60C869474E82}" type="CELLRANGE">
+                    <a:fld id="{C6173AD8-451D-4637-B17A-FAFB7B18A0F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6595,7 +6610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE4BD470-E159-4EA4-AD16-362AA172033B}" type="CELLRANGE">
+                    <a:fld id="{25FDFBD8-447B-4398-8505-0FA0EC0906BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6628,7 +6643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8FFF7EC-EFDE-4160-ACC4-F6A22FED6660}" type="CELLRANGE">
+                    <a:fld id="{69CF7BF2-CE17-4D20-91EC-AEF77EDFAB1F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6661,7 +6676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E62FFC2-FA9C-4AE5-B2EE-6FDF951E4912}" type="CELLRANGE">
+                    <a:fld id="{5A35756F-D5E9-434E-8567-8C064014A0DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6946,6 +6961,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6953,7 +6969,575 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>STOP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>  Per Share Value by Segment </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$N$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Per Share (₹)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="2171B5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-17D1-4828-971B-20A72FA6654A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-17D1-4828-971B-20A72FA6654A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-17D1-4828-971B-20A72FA6654A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-17D1-4828-971B-20A72FA6654A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:numFmt formatCode="#,#00%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-17D1-4828-971B-20A72FA6654A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="600000" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-17D1-4828-971B-20A72FA6654A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="900000" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-17D1-4828-971B-20A72FA6654A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="4800000" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-17D1-4828-971B-20A72FA6654A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="4800000" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$M$25:$M$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>JLR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PV</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$N$25:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>[$₹-439]#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>900.43788152284742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>384.04168457089395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256.02778971392934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.53513352911729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17D1-4828-971B-20A72FA6654A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -6982,6 +7566,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7524,6 +8148,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7557,6 +8700,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78E6800-BDA6-C782-15C5-2D3E21F39BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15345,7 +16524,7 @@
   <dimension ref="B2:V49"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15391,28 +16570,28 @@
       </c>
     </row>
     <row r="4" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="200" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
-      <c r="L4" s="200" t="s">
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="L4" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201"/>
+      <c r="T4" s="201"/>
     </row>
     <row r="5" spans="2:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -15437,23 +16616,23 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="L6" s="198" t="s">
+      <c r="L6" s="186" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198" t="s">
+      <c r="M6" s="186"/>
+      <c r="N6" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198" t="s">
+      <c r="O6" s="186"/>
+      <c r="P6" s="186" t="s">
         <v>161</v>
       </c>
-      <c r="Q6" s="198"/>
-      <c r="R6" s="198" t="s">
+      <c r="Q6" s="186"/>
+      <c r="R6" s="186" t="s">
         <v>162</v>
       </c>
-      <c r="S6" s="198"/>
-      <c r="T6" s="198"/>
+      <c r="S6" s="186"/>
+      <c r="T6" s="186"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -15467,26 +16646,26 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="L7" s="201" t="s">
+      <c r="L7" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="201"/>
-      <c r="N7" s="189">
+      <c r="M7" s="202"/>
+      <c r="N7" s="192">
         <f>'Indian Comps'!D27</f>
         <v>2.3926902837886459</v>
       </c>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189">
+      <c r="O7" s="192"/>
+      <c r="P7" s="192">
         <f>'Global Comps'!D27</f>
         <v>0.7267849196567493</v>
       </c>
-      <c r="Q7" s="189"/>
-      <c r="R7" s="189">
+      <c r="Q7" s="192"/>
+      <c r="R7" s="192">
         <f>(N7*0.6)+(P7*0.4)</f>
         <v>1.7263281381358873</v>
       </c>
-      <c r="S7" s="189"/>
-      <c r="T7" s="189"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -15500,26 +16679,26 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="L8" s="201" t="s">
+      <c r="L8" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="201"/>
-      <c r="N8" s="189">
+      <c r="M8" s="202"/>
+      <c r="N8" s="192">
         <f>'Indian Comps'!E27</f>
         <v>12.508987949111658</v>
       </c>
-      <c r="O8" s="189"/>
-      <c r="P8" s="189">
+      <c r="O8" s="192"/>
+      <c r="P8" s="192">
         <f>'Global Comps'!E27</f>
         <v>6.2847902015849755</v>
       </c>
-      <c r="Q8" s="189"/>
-      <c r="R8" s="189">
+      <c r="Q8" s="192"/>
+      <c r="R8" s="192">
         <f t="shared" ref="R8:R9" si="0">(N8*0.6)+(P8*0.4)</f>
         <v>10.019308850100984</v>
       </c>
-      <c r="S8" s="189"/>
-      <c r="T8" s="189"/>
+      <c r="S8" s="192"/>
+      <c r="T8" s="192"/>
     </row>
     <row r="9" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="175" t="s">
@@ -15528,34 +16707,34 @@
       <c r="C9" s="171">
         <v>668.44</v>
       </c>
-      <c r="D9" s="190" t="s">
+      <c r="D9" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="190"/>
+      <c r="E9" s="193"/>
       <c r="F9" s="162"/>
       <c r="G9" s="162"/>
       <c r="H9" s="162"/>
       <c r="I9" s="162"/>
-      <c r="L9" s="201" t="s">
+      <c r="L9" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="201"/>
-      <c r="N9" s="189">
+      <c r="M9" s="202"/>
+      <c r="N9" s="192">
         <f>'Indian Comps'!F27</f>
         <v>26.421237761579818</v>
       </c>
-      <c r="O9" s="189"/>
-      <c r="P9" s="189">
+      <c r="O9" s="192"/>
+      <c r="P9" s="192">
         <f>'Global Comps'!F27</f>
         <v>7.4604966004061382</v>
       </c>
-      <c r="Q9" s="189"/>
-      <c r="R9" s="189">
+      <c r="Q9" s="192"/>
+      <c r="R9" s="192">
         <f t="shared" si="0"/>
         <v>18.836941297110343</v>
       </c>
-      <c r="S9" s="189"/>
-      <c r="T9" s="189"/>
+      <c r="S9" s="192"/>
+      <c r="T9" s="192"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="162"/>
@@ -15580,88 +16759,88 @@
       <c r="V10" s="164"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="R11" s="195"/>
-      <c r="S11" s="195"/>
-      <c r="T11" s="195"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="198"/>
+      <c r="T11" s="198"/>
     </row>
     <row r="12" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="185" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="L12" s="188" t="s">
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="L12" s="185" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="188"/>
-      <c r="P12" s="188"/>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="188"/>
-      <c r="S12" s="188"/>
-      <c r="T12" s="188"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
     </row>
     <row r="13" spans="2:22" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="194" t="s">
+      <c r="C14" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="194"/>
-      <c r="E14" s="194" t="s">
+      <c r="D14" s="197"/>
+      <c r="E14" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194" t="s">
+      <c r="F14" s="197"/>
+      <c r="G14" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="194"/>
+      <c r="H14" s="197"/>
       <c r="I14" s="165" t="s">
         <v>182</v>
       </c>
       <c r="J14" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="183" t="s">
+      <c r="L14" s="188" t="s">
         <v>195</v>
       </c>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="183"/>
-      <c r="R14" s="183"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="183"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="188"/>
+      <c r="Q14" s="188"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="188"/>
+      <c r="T14" s="188"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="170" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="181">
+      <c r="C15" s="182">
         <f>'Indian Comps'!X27</f>
         <v>2773.4918125832219</v>
       </c>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181">
+      <c r="D15" s="182"/>
+      <c r="E15" s="182">
         <f>'Indian Comps'!Y27</f>
         <v>2753.546269079467</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181">
+      <c r="F15" s="182"/>
+      <c r="G15" s="182">
         <f>'Indian Comps'!Z27</f>
         <v>1997.4005022811682</v>
       </c>
-      <c r="H15" s="181"/>
+      <c r="H15" s="182"/>
       <c r="I15" s="166">
         <f>AVERAGE(C15,E15,G15)</f>
         <v>2508.1461946479526</v>
@@ -15670,35 +16849,35 @@
         <f>MEDIAN(C15,E15,G15)</f>
         <v>2753.546269079467</v>
       </c>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="183"/>
-      <c r="Q15" s="183"/>
-      <c r="R15" s="183"/>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="188"/>
+      <c r="P15" s="188"/>
+      <c r="Q15" s="188"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="188"/>
+      <c r="T15" s="188"/>
     </row>
     <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="170" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="181">
+      <c r="C16" s="182">
         <f>'Global Comps'!X27</f>
         <v>784.39913584445219</v>
       </c>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181">
+      <c r="D16" s="182"/>
+      <c r="E16" s="182">
         <f>'Global Comps'!Y27</f>
         <v>1479.608202687099</v>
       </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181">
+      <c r="F16" s="182"/>
+      <c r="G16" s="182">
         <f>'Global Comps'!Z27</f>
         <v>564.0008159870232</v>
       </c>
-      <c r="H16" s="181"/>
+      <c r="H16" s="182"/>
       <c r="I16" s="166">
         <f>AVERAGE(C16,E16,G16)</f>
         <v>942.66938483952481</v>
@@ -15707,37 +16886,37 @@
         <f>MEDIAN(C16,E16,G16)</f>
         <v>784.39913584445219</v>
       </c>
-      <c r="L16" s="183" t="s">
+      <c r="L16" s="188" t="s">
         <v>192</v>
       </c>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="183"/>
-      <c r="R16" s="183"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="183"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="188"/>
+      <c r="O16" s="188"/>
+      <c r="P16" s="188"/>
+      <c r="Q16" s="188"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="188"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="170" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="181">
+      <c r="C17" s="182">
         <f>(('Indian Comps'!H27*Summary!R7)+'Indian Comps'!Q27-'Indian Comps'!P27)/'Indian Comps'!R27</f>
         <v>2144.6203171964917</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181">
+      <c r="D17" s="182"/>
+      <c r="E17" s="182">
         <f>((C29*R8)+'Indian Comps'!Q27-'Indian Comps'!P27)/'Indian Comps'!R27</f>
         <v>2134.0854582367347</v>
       </c>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181">
+      <c r="F17" s="182"/>
+      <c r="G17" s="182">
         <f>(Summary!R9*'Indian Comps'!J28*'Indian Comps'!R28)/'Indian Comps'!R28</f>
         <v>1424.04062776351</v>
       </c>
-      <c r="H17" s="181"/>
+      <c r="H17" s="182"/>
       <c r="I17" s="166">
         <f>AVERAGE(C17,E17,G17)</f>
         <v>1900.9154677322456</v>
@@ -15746,15 +16925,15 @@
         <f>MEDIAN(C17,E17,G17)</f>
         <v>2134.0854582367347</v>
       </c>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="183"/>
-      <c r="R17" s="183"/>
-      <c r="S17" s="183"/>
-      <c r="T17" s="183"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="188"/>
+      <c r="P17" s="188"/>
+      <c r="Q17" s="188"/>
+      <c r="R17" s="188"/>
+      <c r="S17" s="188"/>
+      <c r="T17" s="188"/>
     </row>
     <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="75"/>
@@ -15762,330 +16941,376 @@
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
       <c r="H18" s="75"/>
-      <c r="L18" s="183" t="s">
+      <c r="L18" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="183"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="183"/>
-      <c r="T18" s="183"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="188"/>
+      <c r="T18" s="188"/>
     </row>
     <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
+      <c r="E19" s="181"/>
       <c r="F19" s="75"/>
       <c r="G19" s="75"/>
       <c r="H19" s="75"/>
-      <c r="L19" s="183" t="s">
+      <c r="L19" s="188" t="s">
         <v>194</v>
       </c>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="183"/>
-      <c r="Q19" s="183"/>
-      <c r="R19" s="183"/>
-      <c r="S19" s="183"/>
-      <c r="T19" s="183"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="188"/>
+      <c r="O19" s="188"/>
+      <c r="P19" s="188"/>
+      <c r="Q19" s="188"/>
+      <c r="R19" s="188"/>
+      <c r="S19" s="188"/>
+      <c r="T19" s="188"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="183"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="188"/>
+      <c r="O20" s="188"/>
+      <c r="P20" s="188"/>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="188"/>
+      <c r="T20" s="188"/>
     </row>
     <row r="22" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="185" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="185"/>
     </row>
     <row r="23" spans="2:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="198" t="s">
+      <c r="C24" s="186" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198" t="s">
+      <c r="D24" s="186"/>
+      <c r="E24" s="186" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198" t="s">
+      <c r="F24" s="186"/>
+      <c r="G24" s="186" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="198"/>
-      <c r="I24" s="185" t="s">
+      <c r="H24" s="186"/>
+      <c r="I24" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="J24" s="185"/>
+      <c r="J24" s="187"/>
+      <c r="M24" t="str">
+        <f>B24</f>
+        <v>Segment</v>
+      </c>
+      <c r="N24" t="str">
+        <f>I24</f>
+        <v>Per Share (₹)</v>
+      </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="173" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="182">
+      <c r="C25" s="183">
         <f>'Indian Comps'!M11*0.7</f>
         <v>52760.609999999986</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="196">
+      <c r="D25" s="183"/>
+      <c r="E25" s="184">
         <f>P8</f>
         <v>6.2847902015849755</v>
       </c>
-      <c r="F25" s="196"/>
-      <c r="G25" s="182">
+      <c r="F25" s="184"/>
+      <c r="G25" s="183">
         <f>C25*E25</f>
         <v>331589.36475764617</v>
       </c>
-      <c r="H25" s="182"/>
-      <c r="I25" s="197">
+      <c r="H25" s="183"/>
+      <c r="I25" s="199">
         <f>G25/'Indian Comps'!$R$26</f>
         <v>900.43788152284742</v>
       </c>
-      <c r="J25" s="197"/>
+      <c r="J25" s="199"/>
+      <c r="M25" t="str">
+        <f t="shared" ref="M25:M27" si="1">B25</f>
+        <v>JLR</v>
+      </c>
+      <c r="N25" s="213">
+        <f t="shared" ref="N25:N28" si="2">I25</f>
+        <v>900.43788152284742</v>
+      </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="182">
+      <c r="C26" s="183">
         <f>'Indian Comps'!M11*0.15</f>
         <v>11305.844999999998</v>
       </c>
-      <c r="D26" s="182"/>
-      <c r="E26" s="196">
+      <c r="D26" s="183"/>
+      <c r="E26" s="184">
         <f>N8</f>
         <v>12.508987949111658</v>
       </c>
-      <c r="F26" s="196"/>
-      <c r="G26" s="182">
-        <f t="shared" ref="G26:G28" si="1">C26*E26</f>
+      <c r="F26" s="184"/>
+      <c r="G26" s="183">
+        <f t="shared" ref="G26:G28" si="3">C26*E26</f>
         <v>141424.67885952425</v>
       </c>
-      <c r="H26" s="182"/>
-      <c r="I26" s="197">
+      <c r="H26" s="183"/>
+      <c r="I26" s="199">
         <f>G26/'Indian Comps'!$R$26</f>
         <v>384.04168457089395</v>
       </c>
-      <c r="J26" s="197"/>
+      <c r="J26" s="199"/>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>CV</v>
+      </c>
+      <c r="N26" s="213">
+        <f t="shared" si="2"/>
+        <v>384.04168457089395</v>
+      </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="182">
+      <c r="C27" s="183">
         <f>'Indian Comps'!M11*0.1</f>
         <v>7537.23</v>
       </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="196">
+      <c r="D27" s="183"/>
+      <c r="E27" s="184">
         <f>N8</f>
         <v>12.508987949111658</v>
       </c>
-      <c r="F27" s="196"/>
-      <c r="G27" s="182">
-        <f t="shared" si="1"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="183">
+        <f t="shared" si="3"/>
         <v>94283.119239682856</v>
       </c>
-      <c r="H27" s="182"/>
-      <c r="I27" s="197">
+      <c r="H27" s="183"/>
+      <c r="I27" s="199">
         <f>G27/'Indian Comps'!$R$26</f>
         <v>256.02778971392934</v>
       </c>
-      <c r="J27" s="197"/>
+      <c r="J27" s="199"/>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>PV</v>
+      </c>
+      <c r="N27" s="213">
+        <f t="shared" si="2"/>
+        <v>256.02778971392934</v>
+      </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="173" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="182">
+      <c r="C28" s="183">
         <f>'Indian Comps'!M11*0.05</f>
         <v>3768.6149999999998</v>
       </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="196">
+      <c r="D28" s="183"/>
+      <c r="E28" s="184">
         <f>R8</f>
         <v>10.019308850100984</v>
       </c>
-      <c r="F28" s="196"/>
-      <c r="G28" s="182">
-        <f t="shared" si="1"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="183">
+        <f t="shared" si="3"/>
         <v>37758.917622123314</v>
       </c>
-      <c r="H28" s="182"/>
-      <c r="I28" s="197">
+      <c r="H28" s="183"/>
+      <c r="I28" s="199">
         <f>G28/'Indian Comps'!$R$26</f>
         <v>102.53513352911729</v>
       </c>
-      <c r="J28" s="197"/>
+      <c r="J28" s="199"/>
+      <c r="M28" t="str">
+        <f>B28</f>
+        <v>Others</v>
+      </c>
+      <c r="N28" s="213">
+        <f t="shared" si="2"/>
+        <v>102.53513352911729</v>
+      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="173" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="182">
+      <c r="C29" s="183">
         <f>SUM(C25:D28)</f>
         <v>75372.299999999988</v>
       </c>
-      <c r="D29" s="182"/>
-      <c r="E29" s="182" t="s">
+      <c r="D29" s="183"/>
+      <c r="E29" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182">
+      <c r="F29" s="183"/>
+      <c r="G29" s="183">
         <f>SUM(G25:H28)</f>
         <v>605056.0804789766</v>
       </c>
-      <c r="H29" s="182"/>
-      <c r="I29" s="197" t="s">
+      <c r="H29" s="183"/>
+      <c r="I29" s="199" t="s">
         <v>175</v>
       </c>
-      <c r="J29" s="197"/>
+      <c r="J29" s="199"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="173" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="182" t="s">
+      <c r="C30" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182" t="s">
+      <c r="D30" s="183"/>
+      <c r="E30" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182">
+      <c r="F30" s="183"/>
+      <c r="G30" s="183">
         <f>('Indian Comps'!Q28-'Indian Comps'!P28)</f>
         <v>30706</v>
       </c>
-      <c r="H30" s="182"/>
-      <c r="I30" s="197" t="s">
+      <c r="H30" s="183"/>
+      <c r="I30" s="199" t="s">
         <v>175</v>
       </c>
-      <c r="J30" s="197"/>
+      <c r="J30" s="199"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="182" t="s">
+      <c r="C31" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182" t="s">
+      <c r="D31" s="183"/>
+      <c r="E31" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182">
+      <c r="F31" s="183"/>
+      <c r="G31" s="183">
         <f>G29-G30</f>
         <v>574350.0804789766</v>
       </c>
-      <c r="H31" s="182"/>
-      <c r="I31" s="197" t="s">
+      <c r="H31" s="183"/>
+      <c r="I31" s="199" t="s">
         <v>175</v>
       </c>
-      <c r="J31" s="197"/>
+      <c r="J31" s="199"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="172" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="182" t="s">
+      <c r="C32" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="182"/>
-      <c r="E32" s="182" t="s">
+      <c r="D32" s="183"/>
+      <c r="E32" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182" t="s">
+      <c r="F32" s="183"/>
+      <c r="G32" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="182"/>
-      <c r="I32" s="197">
+      <c r="H32" s="183"/>
+      <c r="I32" s="199">
         <f>SUM(I25:J28)</f>
         <v>1643.0424893367879</v>
       </c>
-      <c r="J32" s="197"/>
+      <c r="J32" s="199"/>
     </row>
     <row r="35" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="188" t="s">
+      <c r="B35" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="188"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="185"/>
     </row>
     <row r="36" spans="2:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="185" t="s">
+      <c r="B37" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="185"/>
-      <c r="D37" s="191" t="s">
+      <c r="C37" s="187"/>
+      <c r="D37" s="194" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="192"/>
-      <c r="F37" s="193" t="s">
+      <c r="E37" s="195"/>
+      <c r="F37" s="196" t="s">
         <v>187</v>
       </c>
-      <c r="G37" s="193"/>
+      <c r="G37" s="196"/>
+      <c r="N37" s="214">
+        <v>1643</v>
+      </c>
+      <c r="O37" s="214"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="184" t="s">
+      <c r="B38" s="189" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="184"/>
-      <c r="D38" s="187">
+      <c r="C38" s="189"/>
+      <c r="D38" s="191">
         <f>I17</f>
         <v>1900.9154677322456</v>
       </c>
-      <c r="E38" s="187"/>
-      <c r="F38" s="186">
+      <c r="E38" s="191"/>
+      <c r="F38" s="190">
         <f>(D38/C9)-1</f>
         <v>1.8438086705347456</v>
       </c>
-      <c r="G38" s="186"/>
+      <c r="G38" s="190"/>
+      <c r="N38" s="191"/>
+      <c r="O38" s="191"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="184" t="s">
+      <c r="B39" s="189" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="184"/>
-      <c r="D39" s="187">
+      <c r="C39" s="189"/>
+      <c r="D39" s="191">
         <f>I32</f>
         <v>1643.0424893367879</v>
       </c>
-      <c r="E39" s="187"/>
-      <c r="F39" s="186">
+      <c r="E39" s="191"/>
+      <c r="F39" s="190">
         <f>(D39/C9)-1</f>
         <v>1.4580253864771522</v>
       </c>
-      <c r="G39" s="186"/>
+      <c r="G39" s="190"/>
     </row>
     <row r="41" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="179" t="s">
@@ -16127,18 +17352,18 @@
         <v>0.410252804798523</v>
       </c>
       <c r="M43" s="178">
-        <f t="shared" ref="M43:M44" si="2">(J16/$C$9)-1</f>
+        <f t="shared" ref="M43:M44" si="4">(J16/$C$9)-1</f>
         <v>0.17347725427031913</v>
       </c>
       <c r="N43" s="169"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L44" s="178">
-        <f t="shared" ref="L44" si="3">(I17/$C$9)-1</f>
+        <f t="shared" ref="L44" si="5">(I17/$C$9)-1</f>
         <v>1.8438086705347456</v>
       </c>
       <c r="M44" s="178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1926357761904351</v>
       </c>
       <c r="N44" s="169"/>
@@ -16147,6 +17372,9 @@
       <c r="L45" s="169"/>
       <c r="M45" s="169"/>
       <c r="N45" s="169"/>
+      <c r="R45" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L46" s="169"/>
@@ -16166,7 +17394,9 @@
       <c r="M49" s="180"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="87">
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N37:O37"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P8:Q8"/>
@@ -16317,16 +17547,16 @@
       <c r="B1" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="210" t="str">
+      <c r="E1" s="211" t="str">
         <f>IF(B2&lt;&gt;B3, "A NEW VERSION OF THE WORKSHEET IS AVAILABLE", "")</f>
         <v/>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -16335,15 +17565,15 @@
       <c r="B2" s="89">
         <v>2.1</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
@@ -20038,16 +21268,16 @@
       <c r="B1" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="210" t="str">
+      <c r="E1" s="211" t="str">
         <f>IF(B2&lt;&gt;B3, "A NEW VERSION OF THE WORKSHEET IS AVAILABLE", "")</f>
         <v/>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
@@ -20056,15 +21286,15 @@
       <c r="B2" s="109">
         <v>2.1</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
@@ -23890,16 +25120,16 @@
       <c r="B1" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="210" t="str">
+      <c r="E1" s="211" t="str">
         <f>IF(B2&lt;&gt;B3, "A NEW VERSION OF THE WORKSHEET IS AVAILABLE", "")</f>
         <v/>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
@@ -23908,15 +25138,15 @@
       <c r="B2" s="109">
         <v>2.1</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
@@ -27745,16 +28975,16 @@
       <c r="B1" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="210" t="str">
+      <c r="E1" s="211" t="str">
         <f>IF(B2&lt;&gt;B3, "A NEW VERSION OF THE WORKSHEET IS AVAILABLE", "")</f>
         <v/>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
@@ -27763,15 +28993,15 @@
       <c r="B2" s="109">
         <v>2.1</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
@@ -29641,7 +30871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1E3E98-842F-4BCE-891F-EE3DAD14E4DC}">
   <dimension ref="A1:AC42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="O22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -29757,14 +30987,14 @@
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
-      <c r="X7" s="202" t="s">
+      <c r="X7" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="202"/>
-      <c r="Z7" s="202"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="202"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
     </row>
     <row r="8" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -29783,45 +31013,45 @@
         <v>18</v>
       </c>
       <c r="H8" s="17"/>
-      <c r="I8" s="202" t="s">
+      <c r="I8" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202" t="s">
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202" t="s">
+      <c r="M8" s="203"/>
+      <c r="N8" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="202"/>
+      <c r="O8" s="203"/>
       <c r="P8" s="17"/>
-      <c r="Q8" s="202" t="s">
+      <c r="Q8" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="202"/>
-      <c r="S8" s="205" t="s">
+      <c r="R8" s="203"/>
+      <c r="S8" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="205"/>
-      <c r="U8" s="205" t="s">
+      <c r="T8" s="209"/>
+      <c r="U8" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="205"/>
+      <c r="V8" s="209"/>
       <c r="W8" s="17"/>
-      <c r="X8" s="206" t="s">
+      <c r="X8" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" s="206"/>
-      <c r="Z8" s="206" t="s">
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="206"/>
-      <c r="AB8" s="206" t="s">
+      <c r="AA8" s="210"/>
+      <c r="AB8" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" s="206"/>
+      <c r="AC8" s="210"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -30886,49 +32116,49 @@
     <row r="23" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="202" t="s">
+      <c r="D23" s="203" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="202" t="s">
+      <c r="H23" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="202"/>
-      <c r="J23" s="202"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="203"/>
       <c r="K23" s="17"/>
-      <c r="L23" s="202" t="s">
+      <c r="L23" s="203" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
+      <c r="M23" s="203"/>
+      <c r="N23" s="203"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="202" t="s">
+      <c r="T23" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="U23" s="202"/>
-      <c r="V23" s="202"/>
+      <c r="U23" s="203"/>
+      <c r="V23" s="203"/>
       <c r="W23" s="17"/>
-      <c r="X23" s="202" t="s">
+      <c r="X23" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="Y23" s="202"/>
-      <c r="Z23" s="202"/>
+      <c r="Y23" s="203"/>
+      <c r="Z23" s="203"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="207"/>
+      <c r="C24" s="206"/>
       <c r="D24" s="18" t="s">
         <v>19</v>
       </c>
@@ -30997,10 +32227,10 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="207" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="209"/>
+      <c r="C26" s="208"/>
       <c r="D26" s="39">
         <f>MIN(Y13:Y16)</f>
         <v>1.5109444414912576</v>
@@ -31083,10 +32313,10 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="203" t="s">
+      <c r="B27" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="204"/>
+      <c r="C27" s="205"/>
       <c r="D27" s="39">
         <f>Y20</f>
         <v>2.3926902837886459</v>
@@ -31169,10 +32399,10 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="204"/>
+      <c r="B28" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="205"/>
       <c r="D28" s="39">
         <f>Y21</f>
         <v>2.4512654505762446</v>
@@ -31255,10 +32485,10 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="203"/>
+      <c r="C29" s="204"/>
       <c r="D29" s="39">
         <f>MAX(Y13:Y16)</f>
         <v>3.1572857925108355</v>
@@ -31603,6 +32833,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:P18">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -31611,16 +32851,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -31751,6 +32981,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32:R36">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -31759,16 +32999,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -31875,6 +33105,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T36 T38">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -31883,16 +33123,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -31955,6 +33185,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -31963,16 +33203,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="33">
@@ -32033,14 +33263,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -32053,14 +33283,14 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -34136,16 +35366,16 @@
       <c r="B1" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="210" t="str">
+      <c r="E1" s="211" t="str">
         <f>IF(B2&lt;&gt;B3, "A NEW VERSION OF THE WORKSHEET IS AVAILABLE", "")</f>
         <v/>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
@@ -34154,15 +35384,15 @@
       <c r="B2" s="109">
         <v>2.1</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
@@ -37988,16 +39218,16 @@
       <c r="B1" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="210" t="str">
+      <c r="E1" s="211" t="str">
         <f>IF(B2&lt;&gt;B3, "A NEW VERSION OF THE WORKSHEET IS AVAILABLE", "")</f>
         <v/>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
@@ -38006,15 +39236,15 @@
       <c r="B2" s="109">
         <v>2.1</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
@@ -41840,16 +43070,16 @@
       <c r="B1" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="210" t="str">
+      <c r="E1" s="211" t="str">
         <f>IF(B2&lt;&gt;B3, "A NEW VERSION OF THE WORKSHEET IS AVAILABLE", "")</f>
         <v/>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
@@ -41858,15 +43088,15 @@
       <c r="B2" s="109">
         <v>2.1</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
@@ -44787,8 +46017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD5311-FBD8-45CE-9919-D23F82A25589}">
   <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" topLeftCell="U22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -44906,14 +46136,14 @@
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
-      <c r="X7" s="202" t="s">
+      <c r="X7" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="202"/>
-      <c r="Z7" s="202"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="202"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
     </row>
     <row r="8" spans="1:29" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -44932,45 +46162,45 @@
         <v>18</v>
       </c>
       <c r="H8" s="17"/>
-      <c r="I8" s="202" t="s">
+      <c r="I8" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-      <c r="L8" s="202" t="s">
+      <c r="J8" s="203"/>
+      <c r="K8" s="203"/>
+      <c r="L8" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202" t="s">
+      <c r="M8" s="203"/>
+      <c r="N8" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="202"/>
+      <c r="O8" s="203"/>
       <c r="P8" s="17"/>
-      <c r="Q8" s="202" t="s">
+      <c r="Q8" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="202"/>
-      <c r="S8" s="205" t="s">
+      <c r="R8" s="203"/>
+      <c r="S8" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="T8" s="205"/>
-      <c r="U8" s="205" t="s">
+      <c r="T8" s="209"/>
+      <c r="U8" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="205"/>
+      <c r="V8" s="209"/>
       <c r="W8" s="17"/>
-      <c r="X8" s="206" t="s">
+      <c r="X8" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" s="206"/>
-      <c r="Z8" s="206" t="s">
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="AA8" s="206"/>
-      <c r="AB8" s="206" t="s">
+      <c r="AA8" s="210"/>
+      <c r="AB8" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="AC8" s="206"/>
+      <c r="AC8" s="210"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -46054,48 +47284,48 @@
       <c r="A23" s="5"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="202" t="s">
+      <c r="D23" s="203" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="202"/>
-      <c r="F23" s="202"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="202" t="s">
+      <c r="H23" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="202"/>
-      <c r="J23" s="202"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="203"/>
       <c r="K23" s="17"/>
-      <c r="L23" s="202" t="s">
+      <c r="L23" s="203" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
+      <c r="M23" s="203"/>
+      <c r="N23" s="203"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="202" t="s">
+      <c r="T23" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="U23" s="202"/>
-      <c r="V23" s="202"/>
+      <c r="U23" s="203"/>
+      <c r="V23" s="203"/>
       <c r="W23" s="17"/>
-      <c r="X23" s="202" t="s">
+      <c r="X23" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="Y23" s="202"/>
-      <c r="Z23" s="202"/>
+      <c r="Y23" s="203"/>
+      <c r="Z23" s="203"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="207"/>
+      <c r="C24" s="206"/>
       <c r="D24" s="18" t="s">
         <v>19</v>
       </c>
@@ -46162,10 +47392,10 @@
     <row r="25" spans="1:29" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="207" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="209"/>
+      <c r="C26" s="208"/>
       <c r="D26" s="39">
         <f>MIN(Y13:Y18)</f>
         <v>9.4479830148619964E-2</v>
@@ -46239,7 +47469,7 @@
         <v>715.84300099648772</v>
       </c>
       <c r="Z26" s="152">
-        <f t="shared" si="21"/>
+        <f>V26/$R26</f>
         <v>385.12585475678009</v>
       </c>
       <c r="AA26" s="25"/>
@@ -46248,10 +47478,10 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="203" t="s">
+      <c r="B27" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="204"/>
+      <c r="C27" s="205"/>
       <c r="D27" s="39">
         <f>Y20</f>
         <v>0.7267849196567493</v>
@@ -46325,7 +47555,7 @@
         <v>1479.608202687099</v>
       </c>
       <c r="Z27" s="152">
-        <f t="shared" si="21"/>
+        <f>V27/$R27</f>
         <v>564.0008159870232</v>
       </c>
       <c r="AA27" s="25"/>
@@ -46334,10 +47564,10 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="204"/>
+      <c r="B28" s="204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="205"/>
       <c r="D28" s="39">
         <f>Y21</f>
         <v>0.87985986076034939</v>
@@ -46411,7 +47641,7 @@
         <v>1087.8467983677394</v>
       </c>
       <c r="Z28" s="152">
-        <f t="shared" si="21"/>
+        <f>V28/$R28</f>
         <v>565.97283390021062</v>
       </c>
       <c r="AA28" s="25"/>
@@ -46420,10 +47650,10 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="203"/>
+      <c r="C29" s="204"/>
       <c r="D29" s="39">
         <f>MAX(Y13:Y18)</f>
         <v>1.054153846153846</v>
@@ -46762,6 +47992,16 @@
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -46772,7 +48012,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="49">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:P18">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46782,8 +48024,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P18">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -46794,7 +48034,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="131">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46804,8 +48046,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -46816,7 +48056,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="53">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P32:P36 P38">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46826,8 +48068,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P32:P36 P38">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -46838,7 +48078,9 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="55">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -46848,8 +48090,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -46858,16 +48098,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -46954,6 +48184,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37:V37">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -46964,18 +48204,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12 R19">
+  <conditionalFormatting sqref="R19 R12">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -47053,7 +48283,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S12 S19">
+  <conditionalFormatting sqref="S19 S12">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -47136,6 +48366,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:T36 T38">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -47144,16 +48384,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -47181,7 +48411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U19 U12">
+  <conditionalFormatting sqref="U12 U19">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -47194,6 +48424,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:U36">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -47202,16 +48442,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -47228,6 +48458,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -47246,16 +48486,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -47328,7 +48558,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47338,7 +48568,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47374,6 +48604,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:Y18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF00C459"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF5353"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -47382,16 +48622,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00C459"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF5353"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -47418,6 +48648,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:AC19">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -47426,16 +48666,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF00B050"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -48494,16 +49724,16 @@
       <c r="B1" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="210" t="str">
+      <c r="E1" s="211" t="str">
         <f>IF(B2&lt;&gt;B3, "A NEW VERSION OF THE WORKSHEET IS AVAILABLE", "")</f>
         <v/>
       </c>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
@@ -48512,15 +49742,15 @@
       <c r="B2" s="109">
         <v>2.1</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
@@ -49976,7 +51206,7 @@
   <dimension ref="A2:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -50597,7 +51827,7 @@
   <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Relative Valuation Model/Tata Motors Relative Valuation.xlsx
+++ b/Relative Valuation Model/Tata Motors Relative Valuation.xlsx
@@ -2,13 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Relative Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A733EF69-7BA1-4C6D-B864-FE8BB179A75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B30A5F-76DA-4879-86FA-F278FA8D4492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="CQwdamHVUg78CaahhMrSk9disLPBbx60VngXLXwUKzGyQO45MJuxUXhqR4SL5iD8p3IU4dOpvePlz4EsvWSUcw==" workbookSaltValue="3pIwhHHpfDOqlsuU/xTVfw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{BE21E419-21A4-4BEB-85FB-14A6CD47A750}"/>
   </bookViews>
@@ -774,7 +776,7 @@
     <numFmt numFmtId="170" formatCode="[$₹-439]#,##0.00"/>
     <numFmt numFmtId="171" formatCode="0.0%;\(0.0%\)"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="[$₹-439]#,##0"/>
+    <numFmt numFmtId="173" formatCode="[$₹-439]#,##0"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1300,7 +1302,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="12" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -1695,13 +1697,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="22"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="11" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1713,16 +1709,22 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="11" xfId="24" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="12" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1744,19 +1746,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1788,11 +1790,8 @@
     <xf numFmtId="168" fontId="3" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -6371,7 +6370,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43AF69D0-6F4D-4F36-8212-A72CB4694DF5}" type="CELLRANGE">
+                    <a:fld id="{C3B6568B-5958-4191-8F7C-175C9D65CA21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6404,7 +6403,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84521DF0-FFB1-438B-9FE6-27873F241713}" type="CELLRANGE">
+                    <a:fld id="{D247CAD9-4D88-4B6B-9D65-3BAFD02715D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6437,7 +6436,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6173AD8-451D-4637-B17A-FAFB7B18A0F3}" type="CELLRANGE">
+                    <a:fld id="{A44AB484-697D-4B97-B7FF-50B88724D5DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6610,7 +6609,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25FDFBD8-447B-4398-8505-0FA0EC0906BD}" type="CELLRANGE">
+                    <a:fld id="{25F28F7B-7741-440C-BE5F-D8A183833D6A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6643,7 +6642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69CF7BF2-CE17-4D20-91EC-AEF77EDFAB1F}" type="CELLRANGE">
+                    <a:fld id="{9AAE014A-9408-4524-B44C-81947486D32C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6676,7 +6675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A35756F-D5E9-434E-8567-8C064014A0DC}" type="CELLRANGE">
+                    <a:fld id="{6747F42C-D2A0-4D42-BB3E-E35B559A9836}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16523,8 +16522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9560C38-AE55-4C79-9F28-E853CE5E7CD6}">
   <dimension ref="B2:V49"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16570,28 +16569,28 @@
       </c>
     </row>
     <row r="4" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="200" t="s">
+      <c r="B4" s="201" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="L4" s="201" t="s">
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="L4" s="199" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="201"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="201"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="201"/>
-      <c r="T4" s="201"/>
+      <c r="M4" s="199"/>
+      <c r="N4" s="199"/>
+      <c r="O4" s="199"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="199"/>
+      <c r="R4" s="199"/>
+      <c r="S4" s="199"/>
+      <c r="T4" s="199"/>
     </row>
     <row r="5" spans="2:22" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -16616,23 +16615,23 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="L6" s="186" t="s">
+      <c r="L6" s="184" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="186"/>
-      <c r="N6" s="186" t="s">
+      <c r="M6" s="184"/>
+      <c r="N6" s="184" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="186"/>
-      <c r="P6" s="186" t="s">
+      <c r="O6" s="184"/>
+      <c r="P6" s="184" t="s">
         <v>161</v>
       </c>
-      <c r="Q6" s="186"/>
-      <c r="R6" s="186" t="s">
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184" t="s">
         <v>162</v>
       </c>
-      <c r="S6" s="186"/>
-      <c r="T6" s="186"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="184"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -16646,10 +16645,10 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="L7" s="202" t="s">
+      <c r="L7" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="202"/>
+      <c r="M7" s="200"/>
       <c r="N7" s="192">
         <f>'Indian Comps'!D27</f>
         <v>2.3926902837886459</v>
@@ -16679,10 +16678,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="L8" s="202" t="s">
+      <c r="L8" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="202"/>
+      <c r="M8" s="200"/>
       <c r="N8" s="192">
         <f>'Indian Comps'!E27</f>
         <v>12.508987949111658</v>
@@ -16715,10 +16714,10 @@
       <c r="G9" s="162"/>
       <c r="H9" s="162"/>
       <c r="I9" s="162"/>
-      <c r="L9" s="202" t="s">
+      <c r="L9" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="202"/>
+      <c r="M9" s="200"/>
       <c r="N9" s="192">
         <f>'Indian Comps'!F27</f>
         <v>26.421237761579818</v>
@@ -16759,33 +16758,33 @@
       <c r="V10" s="164"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="R11" s="198"/>
-      <c r="S11" s="198"/>
-      <c r="T11" s="198"/>
+      <c r="R11" s="191"/>
+      <c r="S11" s="191"/>
+      <c r="T11" s="191"/>
     </row>
     <row r="12" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="183" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="185"/>
-      <c r="L12" s="185" t="s">
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="L12" s="183" t="s">
         <v>190</v>
       </c>
-      <c r="M12" s="185"/>
-      <c r="N12" s="185"/>
-      <c r="O12" s="185"/>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="183"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="183"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="183"/>
     </row>
     <row r="13" spans="2:22" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16810,37 +16809,37 @@
       <c r="J14" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="188" t="s">
+      <c r="L14" s="198" t="s">
         <v>195</v>
       </c>
-      <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="188"/>
-      <c r="P14" s="188"/>
-      <c r="Q14" s="188"/>
-      <c r="R14" s="188"/>
-      <c r="S14" s="188"/>
-      <c r="T14" s="188"/>
+      <c r="M14" s="198"/>
+      <c r="N14" s="198"/>
+      <c r="O14" s="198"/>
+      <c r="P14" s="198"/>
+      <c r="Q14" s="198"/>
+      <c r="R14" s="198"/>
+      <c r="S14" s="198"/>
+      <c r="T14" s="198"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="170" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="182">
+      <c r="C15" s="188">
         <f>'Indian Comps'!X27</f>
         <v>2773.4918125832219</v>
       </c>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182">
+      <c r="D15" s="188"/>
+      <c r="E15" s="188">
         <f>'Indian Comps'!Y27</f>
         <v>2753.546269079467</v>
       </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182">
+      <c r="F15" s="188"/>
+      <c r="G15" s="188">
         <f>'Indian Comps'!Z27</f>
         <v>1997.4005022811682</v>
       </c>
-      <c r="H15" s="182"/>
+      <c r="H15" s="188"/>
       <c r="I15" s="166">
         <f>AVERAGE(C15,E15,G15)</f>
         <v>2508.1461946479526</v>
@@ -16849,35 +16848,35 @@
         <f>MEDIAN(C15,E15,G15)</f>
         <v>2753.546269079467</v>
       </c>
-      <c r="L15" s="188"/>
-      <c r="M15" s="188"/>
-      <c r="N15" s="188"/>
-      <c r="O15" s="188"/>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="188"/>
-      <c r="S15" s="188"/>
-      <c r="T15" s="188"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="198"/>
+      <c r="P15" s="198"/>
+      <c r="Q15" s="198"/>
+      <c r="R15" s="198"/>
+      <c r="S15" s="198"/>
+      <c r="T15" s="198"/>
     </row>
     <row r="16" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="170" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="182">
+      <c r="C16" s="188">
         <f>'Global Comps'!X27</f>
         <v>784.39913584445219</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182">
+      <c r="D16" s="188"/>
+      <c r="E16" s="188">
         <f>'Global Comps'!Y27</f>
         <v>1479.608202687099</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182">
+      <c r="F16" s="188"/>
+      <c r="G16" s="188">
         <f>'Global Comps'!Z27</f>
         <v>564.0008159870232</v>
       </c>
-      <c r="H16" s="182"/>
+      <c r="H16" s="188"/>
       <c r="I16" s="166">
         <f>AVERAGE(C16,E16,G16)</f>
         <v>942.66938483952481</v>
@@ -16886,37 +16885,37 @@
         <f>MEDIAN(C16,E16,G16)</f>
         <v>784.39913584445219</v>
       </c>
-      <c r="L16" s="188" t="s">
+      <c r="L16" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="M16" s="188"/>
-      <c r="N16" s="188"/>
-      <c r="O16" s="188"/>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="188"/>
-      <c r="R16" s="188"/>
-      <c r="S16" s="188"/>
-      <c r="T16" s="188"/>
+      <c r="M16" s="198"/>
+      <c r="N16" s="198"/>
+      <c r="O16" s="198"/>
+      <c r="P16" s="198"/>
+      <c r="Q16" s="198"/>
+      <c r="R16" s="198"/>
+      <c r="S16" s="198"/>
+      <c r="T16" s="198"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="170" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="182">
+      <c r="C17" s="188">
         <f>(('Indian Comps'!H27*Summary!R7)+'Indian Comps'!Q27-'Indian Comps'!P27)/'Indian Comps'!R27</f>
         <v>2144.6203171964917</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182">
+      <c r="D17" s="188"/>
+      <c r="E17" s="188">
         <f>((C29*R8)+'Indian Comps'!Q27-'Indian Comps'!P27)/'Indian Comps'!R27</f>
         <v>2134.0854582367347</v>
       </c>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182">
+      <c r="F17" s="188"/>
+      <c r="G17" s="188">
         <f>(Summary!R9*'Indian Comps'!J28*'Indian Comps'!R28)/'Indian Comps'!R28</f>
         <v>1424.04062776351</v>
       </c>
-      <c r="H17" s="182"/>
+      <c r="H17" s="188"/>
       <c r="I17" s="166">
         <f>AVERAGE(C17,E17,G17)</f>
         <v>1900.9154677322456</v>
@@ -16925,15 +16924,15 @@
         <f>MEDIAN(C17,E17,G17)</f>
         <v>2134.0854582367347</v>
       </c>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="188"/>
-      <c r="T17" s="188"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="198"/>
+      <c r="N17" s="198"/>
+      <c r="O17" s="198"/>
+      <c r="P17" s="198"/>
+      <c r="Q17" s="198"/>
+      <c r="R17" s="198"/>
+      <c r="S17" s="198"/>
+      <c r="T17" s="198"/>
     </row>
     <row r="18" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="75"/>
@@ -16941,17 +16940,17 @@
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
       <c r="H18" s="75"/>
-      <c r="L18" s="188" t="s">
+      <c r="L18" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="M18" s="188"/>
-      <c r="N18" s="188"/>
-      <c r="O18" s="188"/>
-      <c r="P18" s="188"/>
-      <c r="Q18" s="188"/>
-      <c r="R18" s="188"/>
-      <c r="S18" s="188"/>
-      <c r="T18" s="188"/>
+      <c r="M18" s="198"/>
+      <c r="N18" s="198"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="198"/>
+      <c r="Q18" s="198"/>
+      <c r="R18" s="198"/>
+      <c r="S18" s="198"/>
+      <c r="T18" s="198"/>
     </row>
     <row r="19" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="75"/>
@@ -16959,68 +16958,68 @@
       <c r="F19" s="75"/>
       <c r="G19" s="75"/>
       <c r="H19" s="75"/>
-      <c r="L19" s="188" t="s">
+      <c r="L19" s="198" t="s">
         <v>194</v>
       </c>
-      <c r="M19" s="188"/>
-      <c r="N19" s="188"/>
-      <c r="O19" s="188"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="188"/>
-      <c r="S19" s="188"/>
-      <c r="T19" s="188"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="198"/>
+      <c r="O19" s="198"/>
+      <c r="P19" s="198"/>
+      <c r="Q19" s="198"/>
+      <c r="R19" s="198"/>
+      <c r="S19" s="198"/>
+      <c r="T19" s="198"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="L20" s="188"/>
-      <c r="M20" s="188"/>
-      <c r="N20" s="188"/>
-      <c r="O20" s="188"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="188"/>
-      <c r="S20" s="188"/>
-      <c r="T20" s="188"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
+      <c r="N20" s="198"/>
+      <c r="O20" s="198"/>
+      <c r="P20" s="198"/>
+      <c r="Q20" s="198"/>
+      <c r="R20" s="198"/>
+      <c r="S20" s="198"/>
+      <c r="T20" s="198"/>
     </row>
     <row r="22" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
     </row>
     <row r="23" spans="2:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="186" t="s">
+      <c r="C24" s="184" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186" t="s">
+      <c r="D24" s="184"/>
+      <c r="E24" s="184" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186" t="s">
+      <c r="F24" s="184"/>
+      <c r="G24" s="184" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="186"/>
-      <c r="I24" s="187" t="s">
+      <c r="H24" s="184"/>
+      <c r="I24" s="185" t="s">
         <v>166</v>
       </c>
-      <c r="J24" s="187"/>
-      <c r="M24" t="str">
+      <c r="J24" s="185"/>
+      <c r="M24" s="169" t="str">
         <f>B24</f>
         <v>Segment</v>
       </c>
-      <c r="N24" t="str">
+      <c r="N24" s="169" t="str">
         <f>I24</f>
         <v>Per Share (₹)</v>
       </c>
@@ -17029,27 +17028,27 @@
       <c r="B25" s="173" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="183">
+      <c r="C25" s="182">
         <f>'Indian Comps'!M11*0.7</f>
         <v>52760.609999999986</v>
       </c>
-      <c r="D25" s="183"/>
-      <c r="E25" s="184">
+      <c r="D25" s="182"/>
+      <c r="E25" s="186">
         <f>P8</f>
         <v>6.2847902015849755</v>
       </c>
-      <c r="F25" s="184"/>
-      <c r="G25" s="183">
+      <c r="F25" s="186"/>
+      <c r="G25" s="182">
         <f>C25*E25</f>
         <v>331589.36475764617</v>
       </c>
-      <c r="H25" s="183"/>
-      <c r="I25" s="199">
+      <c r="H25" s="182"/>
+      <c r="I25" s="202">
         <f>G25/'Indian Comps'!$R$26</f>
         <v>900.43788152284742</v>
       </c>
-      <c r="J25" s="199"/>
-      <c r="M25" t="str">
+      <c r="J25" s="202"/>
+      <c r="M25" s="169" t="str">
         <f t="shared" ref="M25:M27" si="1">B25</f>
         <v>JLR</v>
       </c>
@@ -17062,27 +17061,27 @@
       <c r="B26" s="173" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="183">
+      <c r="C26" s="182">
         <f>'Indian Comps'!M11*0.15</f>
         <v>11305.844999999998</v>
       </c>
-      <c r="D26" s="183"/>
-      <c r="E26" s="184">
+      <c r="D26" s="182"/>
+      <c r="E26" s="186">
         <f>N8</f>
         <v>12.508987949111658</v>
       </c>
-      <c r="F26" s="184"/>
-      <c r="G26" s="183">
+      <c r="F26" s="186"/>
+      <c r="G26" s="182">
         <f t="shared" ref="G26:G28" si="3">C26*E26</f>
         <v>141424.67885952425</v>
       </c>
-      <c r="H26" s="183"/>
-      <c r="I26" s="199">
+      <c r="H26" s="182"/>
+      <c r="I26" s="202">
         <f>G26/'Indian Comps'!$R$26</f>
         <v>384.04168457089395</v>
       </c>
-      <c r="J26" s="199"/>
-      <c r="M26" t="str">
+      <c r="J26" s="202"/>
+      <c r="M26" s="169" t="str">
         <f t="shared" si="1"/>
         <v>CV</v>
       </c>
@@ -17095,27 +17094,27 @@
       <c r="B27" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="183">
+      <c r="C27" s="182">
         <f>'Indian Comps'!M11*0.1</f>
         <v>7537.23</v>
       </c>
-      <c r="D27" s="183"/>
-      <c r="E27" s="184">
+      <c r="D27" s="182"/>
+      <c r="E27" s="186">
         <f>N8</f>
         <v>12.508987949111658</v>
       </c>
-      <c r="F27" s="184"/>
-      <c r="G27" s="183">
+      <c r="F27" s="186"/>
+      <c r="G27" s="182">
         <f t="shared" si="3"/>
         <v>94283.119239682856</v>
       </c>
-      <c r="H27" s="183"/>
-      <c r="I27" s="199">
+      <c r="H27" s="182"/>
+      <c r="I27" s="202">
         <f>G27/'Indian Comps'!$R$26</f>
         <v>256.02778971392934</v>
       </c>
-      <c r="J27" s="199"/>
-      <c r="M27" t="str">
+      <c r="J27" s="202"/>
+      <c r="M27" s="169" t="str">
         <f t="shared" si="1"/>
         <v>PV</v>
       </c>
@@ -17128,27 +17127,27 @@
       <c r="B28" s="173" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="183">
+      <c r="C28" s="182">
         <f>'Indian Comps'!M11*0.05</f>
         <v>3768.6149999999998</v>
       </c>
-      <c r="D28" s="183"/>
-      <c r="E28" s="184">
+      <c r="D28" s="182"/>
+      <c r="E28" s="186">
         <f>R8</f>
         <v>10.019308850100984</v>
       </c>
-      <c r="F28" s="184"/>
-      <c r="G28" s="183">
+      <c r="F28" s="186"/>
+      <c r="G28" s="182">
         <f t="shared" si="3"/>
         <v>37758.917622123314</v>
       </c>
-      <c r="H28" s="183"/>
-      <c r="I28" s="199">
+      <c r="H28" s="182"/>
+      <c r="I28" s="202">
         <f>G28/'Indian Comps'!$R$26</f>
         <v>102.53513352911729</v>
       </c>
-      <c r="J28" s="199"/>
-      <c r="M28" t="str">
+      <c r="J28" s="202"/>
+      <c r="M28" s="169" t="str">
         <f>B28</f>
         <v>Others</v>
       </c>
@@ -17161,110 +17160,110 @@
       <c r="B29" s="173" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="183">
+      <c r="C29" s="182">
         <f>SUM(C25:D28)</f>
         <v>75372.299999999988</v>
       </c>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183" t="s">
+      <c r="D29" s="182"/>
+      <c r="E29" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183">
+      <c r="F29" s="182"/>
+      <c r="G29" s="182">
         <f>SUM(G25:H28)</f>
         <v>605056.0804789766</v>
       </c>
-      <c r="H29" s="183"/>
-      <c r="I29" s="199" t="s">
+      <c r="H29" s="182"/>
+      <c r="I29" s="202" t="s">
         <v>175</v>
       </c>
-      <c r="J29" s="199"/>
+      <c r="J29" s="202"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="173" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="183" t="s">
+      <c r="C30" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183" t="s">
+      <c r="D30" s="182"/>
+      <c r="E30" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183">
+      <c r="F30" s="182"/>
+      <c r="G30" s="182">
         <f>('Indian Comps'!Q28-'Indian Comps'!P28)</f>
         <v>30706</v>
       </c>
-      <c r="H30" s="183"/>
-      <c r="I30" s="199" t="s">
+      <c r="H30" s="182"/>
+      <c r="I30" s="202" t="s">
         <v>175</v>
       </c>
-      <c r="J30" s="199"/>
+      <c r="J30" s="202"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="183" t="s">
+      <c r="C31" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183" t="s">
+      <c r="D31" s="182"/>
+      <c r="E31" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183">
+      <c r="F31" s="182"/>
+      <c r="G31" s="182">
         <f>G29-G30</f>
         <v>574350.0804789766</v>
       </c>
-      <c r="H31" s="183"/>
-      <c r="I31" s="199" t="s">
+      <c r="H31" s="182"/>
+      <c r="I31" s="202" t="s">
         <v>175</v>
       </c>
-      <c r="J31" s="199"/>
+      <c r="J31" s="202"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="172" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="183" t="s">
+      <c r="C32" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183" t="s">
+      <c r="D32" s="182"/>
+      <c r="E32" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183" t="s">
+      <c r="F32" s="182"/>
+      <c r="G32" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="H32" s="183"/>
-      <c r="I32" s="199">
+      <c r="H32" s="182"/>
+      <c r="I32" s="202">
         <f>SUM(I25:J28)</f>
         <v>1643.0424893367879</v>
       </c>
-      <c r="J32" s="199"/>
+      <c r="J32" s="202"/>
     </row>
     <row r="35" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="185" t="s">
+      <c r="B35" s="183" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="185"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
     </row>
     <row r="36" spans="2:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="187" t="s">
+      <c r="B37" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="187"/>
+      <c r="C37" s="185"/>
       <c r="D37" s="194" t="s">
         <v>186</v>
       </c>
@@ -17273,44 +17272,38 @@
         <v>187</v>
       </c>
       <c r="G37" s="196"/>
-      <c r="N37" s="214">
-        <v>1643</v>
-      </c>
-      <c r="O37" s="214"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="189" t="s">
+      <c r="B38" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="189"/>
-      <c r="D38" s="191">
+      <c r="C38" s="187"/>
+      <c r="D38" s="190">
         <f>I17</f>
         <v>1900.9154677322456</v>
       </c>
-      <c r="E38" s="191"/>
-      <c r="F38" s="190">
+      <c r="E38" s="190"/>
+      <c r="F38" s="189">
         <f>(D38/C9)-1</f>
         <v>1.8438086705347456</v>
       </c>
-      <c r="G38" s="190"/>
-      <c r="N38" s="191"/>
-      <c r="O38" s="191"/>
+      <c r="G38" s="189"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="189" t="s">
+      <c r="B39" s="187" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="189"/>
-      <c r="D39" s="191">
+      <c r="C39" s="187"/>
+      <c r="D39" s="190">
         <f>I32</f>
         <v>1643.0424893367879</v>
       </c>
-      <c r="E39" s="191"/>
-      <c r="F39" s="190">
+      <c r="E39" s="190"/>
+      <c r="F39" s="189">
         <f>(D39/C9)-1</f>
         <v>1.4580253864771522</v>
       </c>
-      <c r="G39" s="190"/>
+      <c r="G39" s="189"/>
     </row>
     <row r="41" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="179" t="s">
@@ -17394,13 +17387,22 @@
       <c r="M49" s="180"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N37:O37"/>
+  <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0"/>
+  <mergeCells count="85">
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="R7:T7"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="R9:T9"/>
@@ -17413,26 +17415,18 @@
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:T6"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="L19:T20"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G25:H25"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="L12:T12"/>
+    <mergeCell ref="L16:T17"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="N9:O9"/>
@@ -17449,8 +17443,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="L18:T18"/>
     <mergeCell ref="L14:T15"/>
-    <mergeCell ref="L16:T17"/>
-    <mergeCell ref="L19:T20"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B37:C37"/>
@@ -17466,8 +17458,13 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C26:D26"/>
@@ -17476,12 +17473,7 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <conditionalFormatting sqref="I32:J32">
     <cfRule type="colorScale" priority="2">
@@ -32788,6 +32780,7 @@
       <c r="P42" s="127"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="lFgY73CWXq5jueBt5sF4hHT4D+w7+uqD/y/Cp9O8q5Xa9XRllCjgGjND44m+WPBcyGmngn0lJpVRqxEQqtefaw==" saltValue="xWri8fuH2U3Z1TglOAXGtA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
     <mergeCell ref="T23:V23"/>
     <mergeCell ref="X23:Z23"/>
@@ -47968,6 +47961,7 @@
       <c r="AC38" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="sb5LRN5ZnSNMyB8Cyf6HIbRs7Air1rrQYQWdRTcPtolltTsNB7ybBERiU0ElgTdonc0hFEc+21Rca4/Zh6wdqQ==" saltValue="D65EPoVC7mIbHTGcrtMTcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
     <mergeCell ref="X7:AC7"/>
     <mergeCell ref="I8:K8"/>
@@ -48205,7 +48199,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19 R12">
+  <conditionalFormatting sqref="R12 R19">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -48353,7 +48347,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19 T12">
+  <conditionalFormatting sqref="T12 T19">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -48411,7 +48405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12 U19">
+  <conditionalFormatting sqref="U19 U12">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -48501,7 +48495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V19 V12">
+  <conditionalFormatting sqref="V12 V19">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -51818,6 +51812,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="svbLWSGf+SNGKFqxpews8L1f9OYcBeu82UjEmJVVGENq9C6ZdDFUVi2rscT8+JD9qRxLNcCrwXSniZrWMVSxrA==" saltValue="32q502eGJF/8zY1+IcStOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -51827,7 +51822,7 @@
   <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -52328,6 +52323,7 @@
       <c r="C14" s="124"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="pwsYWtGB9B7gNiOonLHO8Ps3q0Qz+u7QaJqSxxukwEPAZj5S4E5dBvNOSZcZMjjwCIomxiWYF/WrI7UzvCx2OQ==" saltValue="7FRMUiRy/cct+gIJJqgtqw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
